--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.74699391293789</v>
+        <v>3.817658333333334</v>
       </c>
       <c r="H2">
-        <v>3.74699391293789</v>
+        <v>11.452975</v>
       </c>
       <c r="I2">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="J2">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.200217989688372</v>
+        <v>0.22859</v>
       </c>
       <c r="N2">
-        <v>0.200217989688372</v>
+        <v>0.68577</v>
       </c>
       <c r="O2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q2">
-        <v>0.7502155886229911</v>
+        <v>0.8726785184166667</v>
       </c>
       <c r="R2">
-        <v>0.7502155886229911</v>
+        <v>7.85410666575</v>
       </c>
       <c r="S2">
-        <v>0.06299644991707756</v>
+        <v>0.0522681927727498</v>
       </c>
       <c r="T2">
-        <v>0.06299644991707756</v>
+        <v>0.0522681927727498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.74699391293789</v>
+        <v>3.817658333333334</v>
       </c>
       <c r="H3">
-        <v>3.74699391293789</v>
+        <v>11.452975</v>
       </c>
       <c r="I3">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="J3">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10094435494406</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N3">
-        <v>2.10094435494406</v>
+        <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q3">
-        <v>7.872225709396615</v>
+        <v>8.326250469913889</v>
       </c>
       <c r="R3">
-        <v>7.872225709396615</v>
+        <v>74.93625422922501</v>
       </c>
       <c r="S3">
-        <v>0.6610396800047725</v>
+        <v>0.4986923081655016</v>
       </c>
       <c r="T3">
-        <v>0.6610396800047725</v>
+        <v>0.4986923081655016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.74699391293789</v>
+        <v>3.817658333333334</v>
       </c>
       <c r="H4">
-        <v>3.74699391293789</v>
+        <v>11.452975</v>
       </c>
       <c r="I4">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="J4">
-        <v>0.858121329187713</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.426155268738376</v>
+        <v>0.173517</v>
       </c>
       <c r="N4">
-        <v>0.426155268738376</v>
+        <v>0.520551</v>
       </c>
       <c r="O4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q4">
-        <v>1.596801197929105</v>
+        <v>0.6624286210250001</v>
       </c>
       <c r="R4">
-        <v>1.596801197929105</v>
+        <v>5.961857589225</v>
       </c>
       <c r="S4">
-        <v>0.1340851992658628</v>
+        <v>0.03967548888993056</v>
       </c>
       <c r="T4">
-        <v>0.1340851992658628</v>
+        <v>0.03967548888993055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.294467861439264</v>
+        <v>3.817658333333334</v>
       </c>
       <c r="H5">
-        <v>0.294467861439264</v>
+        <v>11.452975</v>
       </c>
       <c r="I5">
-        <v>0.06743783377624961</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="J5">
-        <v>0.06743783377624961</v>
+        <v>0.7766040352984358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.200217989688372</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N5">
-        <v>0.200217989688372</v>
+        <v>2.439941</v>
       </c>
       <c r="O5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q5">
-        <v>0.05895776324520352</v>
+        <v>3.104953697163889</v>
       </c>
       <c r="R5">
-        <v>0.05895776324520352</v>
+        <v>27.944583274475</v>
       </c>
       <c r="S5">
-        <v>0.004950749938849719</v>
+        <v>0.1859680454702538</v>
       </c>
       <c r="T5">
-        <v>0.004950749938849719</v>
+        <v>0.1859680454702538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294467861439264</v>
+        <v>0.3540876666666666</v>
       </c>
       <c r="H6">
-        <v>0.294467861439264</v>
+        <v>1.062263</v>
       </c>
       <c r="I6">
-        <v>0.06743783377624961</v>
+        <v>0.07202999503170331</v>
       </c>
       <c r="J6">
-        <v>0.06743783377624961</v>
+        <v>0.07202999503170332</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.10094435494406</v>
+        <v>0.22859</v>
       </c>
       <c r="N6">
-        <v>2.10094435494406</v>
+        <v>0.68577</v>
       </c>
       <c r="O6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q6">
-        <v>0.6186605912032714</v>
+        <v>0.08094089972333332</v>
       </c>
       <c r="R6">
-        <v>0.6186605912032714</v>
+        <v>0.72846809751</v>
       </c>
       <c r="S6">
-        <v>0.05194962826744453</v>
+        <v>0.004847872911567476</v>
       </c>
       <c r="T6">
-        <v>0.05194962826744453</v>
+        <v>0.004847872911567476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.294467861439264</v>
+        <v>0.3540876666666666</v>
       </c>
       <c r="H7">
-        <v>0.294467861439264</v>
+        <v>1.062263</v>
       </c>
       <c r="I7">
-        <v>0.06743783377624961</v>
+        <v>0.07202999503170331</v>
       </c>
       <c r="J7">
-        <v>0.06743783377624961</v>
+        <v>0.07202999503170332</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.426155268738376</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N7">
-        <v>0.426155268738376</v>
+        <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q7">
-        <v>0.1254890306264644</v>
+        <v>0.772259417568111</v>
       </c>
       <c r="R7">
-        <v>0.1254890306264644</v>
+        <v>6.950334758113</v>
       </c>
       <c r="S7">
-        <v>0.01053745556995536</v>
+        <v>0.04625369280460406</v>
       </c>
       <c r="T7">
-        <v>0.01053745556995536</v>
+        <v>0.04625369280460407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.325046533352182</v>
+        <v>0.3540876666666666</v>
       </c>
       <c r="H8">
-        <v>0.325046533352182</v>
+        <v>1.062263</v>
       </c>
       <c r="I8">
-        <v>0.07444083703603717</v>
+        <v>0.07202999503170331</v>
       </c>
       <c r="J8">
-        <v>0.07444083703603717</v>
+        <v>0.07202999503170332</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.200217989688372</v>
+        <v>0.173517</v>
       </c>
       <c r="N8">
-        <v>0.200217989688372</v>
+        <v>0.520551</v>
       </c>
       <c r="O8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q8">
-        <v>0.06508016346294825</v>
+        <v>0.061440229657</v>
       </c>
       <c r="R8">
-        <v>0.06508016346294825</v>
+        <v>0.552962066913</v>
       </c>
       <c r="S8">
-        <v>0.005464854796891109</v>
+        <v>0.003679900100601311</v>
       </c>
       <c r="T8">
-        <v>0.005464854796891109</v>
+        <v>0.003679900100601311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.325046533352182</v>
+        <v>0.3540876666666666</v>
       </c>
       <c r="H9">
-        <v>0.325046533352182</v>
+        <v>1.062263</v>
       </c>
       <c r="I9">
-        <v>0.07444083703603717</v>
+        <v>0.07202999503170331</v>
       </c>
       <c r="J9">
-        <v>0.07444083703603717</v>
+        <v>0.07202999503170332</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.10094435494406</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N9">
-        <v>2.10094435494406</v>
+        <v>2.439941</v>
       </c>
       <c r="O9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q9">
-        <v>0.6829046793404029</v>
+        <v>0.2879843384981111</v>
       </c>
       <c r="R9">
-        <v>0.6829046793404029</v>
+        <v>2.591859046483</v>
       </c>
       <c r="S9">
-        <v>0.05734427687535683</v>
+        <v>0.01724852921493046</v>
       </c>
       <c r="T9">
-        <v>0.05734427687535683</v>
+        <v>0.01724852921493046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.06337666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.19013</v>
+      </c>
+      <c r="I10">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="J10">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.22859</v>
+      </c>
+      <c r="N10">
+        <v>0.68577</v>
+      </c>
+      <c r="O10">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P10">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q10">
+        <v>0.01448727223333333</v>
+      </c>
+      <c r="R10">
+        <v>0.1303854501</v>
+      </c>
+      <c r="S10">
+        <v>0.0008677004439355642</v>
+      </c>
+      <c r="T10">
+        <v>0.0008677004439355643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06337666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.19013</v>
+      </c>
+      <c r="I11">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="J11">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.542951</v>
+      </c>
+      <c r="O11">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P11">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q11">
+        <v>0.1382234748477778</v>
+      </c>
+      <c r="R11">
+        <v>1.24401127363</v>
+      </c>
+      <c r="S11">
+        <v>0.008278754520245336</v>
+      </c>
+      <c r="T11">
+        <v>0.008278754520245336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06337666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.19013</v>
+      </c>
+      <c r="I12">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="J12">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.173517</v>
+      </c>
+      <c r="N12">
+        <v>0.520551</v>
+      </c>
+      <c r="O12">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P12">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q12">
+        <v>0.01099692907</v>
+      </c>
+      <c r="R12">
+        <v>0.09897236162999999</v>
+      </c>
+      <c r="S12">
+        <v>0.0006586498881419454</v>
+      </c>
+      <c r="T12">
+        <v>0.0006586498881419454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06337666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.19013</v>
+      </c>
+      <c r="I13">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="J13">
+        <v>0.01289234676852884</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.439941</v>
+      </c>
+      <c r="O13">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P13">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q13">
+        <v>0.05154510914777778</v>
+      </c>
+      <c r="R13">
+        <v>0.46390598233</v>
+      </c>
+      <c r="S13">
+        <v>0.003087241916205994</v>
+      </c>
+      <c r="T13">
+        <v>0.003087241916205994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6807136666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.042141</v>
+      </c>
+      <c r="I14">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="J14">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.22859</v>
+      </c>
+      <c r="N14">
+        <v>0.68577</v>
+      </c>
+      <c r="O14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q14">
+        <v>0.1556043370633333</v>
+      </c>
+      <c r="R14">
+        <v>1.40043903357</v>
+      </c>
+      <c r="S14">
+        <v>0.009319763594798386</v>
+      </c>
+      <c r="T14">
+        <v>0.009319763594798386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6807136666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.042141</v>
+      </c>
+      <c r="I15">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="J15">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.542951</v>
+      </c>
+      <c r="O15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q15">
+        <v>1.484625388676778</v>
+      </c>
+      <c r="R15">
+        <v>13.361628498091</v>
+      </c>
+      <c r="S15">
+        <v>0.08892012851590138</v>
+      </c>
+      <c r="T15">
+        <v>0.08892012851590138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.325046533352182</v>
-      </c>
-      <c r="H10">
-        <v>0.325046533352182</v>
-      </c>
-      <c r="I10">
-        <v>0.07444083703603717</v>
-      </c>
-      <c r="J10">
-        <v>0.07444083703603717</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.426155268738376</v>
-      </c>
-      <c r="N10">
-        <v>0.426155268738376</v>
-      </c>
-      <c r="O10">
-        <v>0.1562543601996075</v>
-      </c>
-      <c r="P10">
-        <v>0.1562543601996075</v>
-      </c>
-      <c r="Q10">
-        <v>0.1385202927731766</v>
-      </c>
-      <c r="R10">
-        <v>0.1385202927731766</v>
-      </c>
-      <c r="S10">
-        <v>0.01163170536378923</v>
-      </c>
-      <c r="T10">
-        <v>0.01163170536378923</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6807136666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.042141</v>
+      </c>
+      <c r="I16">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="J16">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.173517</v>
+      </c>
+      <c r="N16">
+        <v>0.520551</v>
+      </c>
+      <c r="O16">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P16">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q16">
+        <v>0.118115393299</v>
+      </c>
+      <c r="R16">
+        <v>1.063038539691</v>
+      </c>
+      <c r="S16">
+        <v>0.007074401415978965</v>
+      </c>
+      <c r="T16">
+        <v>0.007074401415978964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6807136666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.042141</v>
+      </c>
+      <c r="I17">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="J17">
+        <v>0.138473622901332</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.439941</v>
+      </c>
+      <c r="O17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q17">
+        <v>0.5536337281867778</v>
+      </c>
+      <c r="R17">
+        <v>4.982703553681</v>
+      </c>
+      <c r="S17">
+        <v>0.03315932937465327</v>
+      </c>
+      <c r="T17">
+        <v>0.03315932937465326</v>
       </c>
     </row>
   </sheetData>
